--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo1-Lgr6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo1-Lgr6.xlsx
@@ -82,13 +82,13 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
     <t>Rspo1</t>
   </si>
   <si>
     <t>Lgr6</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,40 +543,40 @@
         <v>0.210976</v>
       </c>
       <c r="I2">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J2">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2280253333333333</v>
+        <v>0.01182833333333333</v>
       </c>
       <c r="N2">
-        <v>0.684076</v>
+        <v>0.035485</v>
       </c>
       <c r="O2">
-        <v>0.5347665151402629</v>
+        <v>0.03045376408867423</v>
       </c>
       <c r="P2">
-        <v>0.5347665151402629</v>
+        <v>0.03045376408867423</v>
       </c>
       <c r="Q2">
-        <v>0.01603595757511111</v>
+        <v>0.0008318314844444446</v>
       </c>
       <c r="R2">
-        <v>0.144323618176</v>
+        <v>0.007486483360000001</v>
       </c>
       <c r="S2">
-        <v>0.04397833504776299</v>
+        <v>0.005745185528754602</v>
       </c>
       <c r="T2">
-        <v>0.04397833504776298</v>
+        <v>0.005745185528754602</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,10 +605,10 @@
         <v>0.210976</v>
       </c>
       <c r="I3">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J3">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,60 +617,60 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1983763333333333</v>
+        <v>0.2280253333333333</v>
       </c>
       <c r="N3">
-        <v>0.595129</v>
+        <v>0.684076</v>
       </c>
       <c r="O3">
-        <v>0.4652334848597371</v>
+        <v>0.5870843771374921</v>
       </c>
       <c r="P3">
-        <v>0.4652334848597371</v>
+        <v>0.5870843771374921</v>
       </c>
       <c r="Q3">
-        <v>0.01395088176711111</v>
+        <v>0.01603595757511111</v>
       </c>
       <c r="R3">
-        <v>0.125557935904</v>
+        <v>0.144323618176</v>
       </c>
       <c r="S3">
-        <v>0.03826005086955272</v>
+        <v>0.1107550665286271</v>
       </c>
       <c r="T3">
-        <v>0.0382600508695527</v>
+        <v>0.1107550665286271</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06003333333333333</v>
+        <v>0.07032533333333334</v>
       </c>
       <c r="H4">
-        <v>0.1801</v>
+        <v>0.210976</v>
       </c>
       <c r="I4">
-        <v>0.07020292973470232</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J4">
-        <v>0.07020292973470232</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2280253333333333</v>
+        <v>0.1485493333333333</v>
       </c>
       <c r="N4">
-        <v>0.684076</v>
+        <v>0.445648</v>
       </c>
       <c r="O4">
-        <v>0.5347665151402629</v>
+        <v>0.3824618587738337</v>
       </c>
       <c r="P4">
-        <v>0.5347665151402629</v>
+        <v>0.3824618587738337</v>
       </c>
       <c r="Q4">
-        <v>0.01368912084444444</v>
+        <v>0.01044678138311111</v>
       </c>
       <c r="R4">
-        <v>0.1232020876</v>
+        <v>0.094021032448</v>
       </c>
       <c r="S4">
-        <v>0.0375421760868635</v>
+        <v>0.0721524711996176</v>
       </c>
       <c r="T4">
-        <v>0.0375421760868635</v>
+        <v>0.0721524711996176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,93 +708,93 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.3024513333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.907354</v>
+      </c>
+      <c r="I5">
+        <v>0.8113472767430007</v>
+      </c>
+      <c r="J5">
+        <v>0.8113472767430007</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.06003333333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.1801</v>
-      </c>
-      <c r="I5">
-        <v>0.07020292973470232</v>
-      </c>
-      <c r="J5">
-        <v>0.07020292973470232</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>0.1983763333333333</v>
+        <v>0.01182833333333333</v>
       </c>
       <c r="N5">
-        <v>0.595129</v>
+        <v>0.035485</v>
       </c>
       <c r="O5">
-        <v>0.4652334848597371</v>
+        <v>0.03045376408867423</v>
       </c>
       <c r="P5">
-        <v>0.4652334848597371</v>
+        <v>0.03045376408867423</v>
       </c>
       <c r="Q5">
-        <v>0.01190919254444445</v>
+        <v>0.003577495187777779</v>
       </c>
       <c r="R5">
-        <v>0.1071827329</v>
+        <v>0.03219745669</v>
       </c>
       <c r="S5">
-        <v>0.03266075364783882</v>
+        <v>0.02470857855991962</v>
       </c>
       <c r="T5">
-        <v>0.03266075364783882</v>
+        <v>0.02470857855991962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7247813333333332</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H6">
-        <v>2.174344</v>
+        <v>0.907354</v>
       </c>
       <c r="I6">
-        <v>0.847558684347982</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J6">
-        <v>0.847558684347982</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,54 +809,54 @@
         <v>0.684076</v>
       </c>
       <c r="O6">
-        <v>0.5347665151402629</v>
+        <v>0.5870843771374921</v>
       </c>
       <c r="P6">
-        <v>0.5347665151402629</v>
+        <v>0.5870843771374921</v>
       </c>
       <c r="Q6">
-        <v>0.1652685051271111</v>
+        <v>0.06896656610044445</v>
       </c>
       <c r="R6">
-        <v>1.487416546144</v>
+        <v>0.620699094904</v>
       </c>
       <c r="S6">
-        <v>0.4532460040056364</v>
+        <v>0.476329310608865</v>
       </c>
       <c r="T6">
-        <v>0.4532460040056364</v>
+        <v>0.476329310608865</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7247813333333332</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H7">
-        <v>2.174344</v>
+        <v>0.907354</v>
       </c>
       <c r="I7">
-        <v>0.847558684347982</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J7">
-        <v>0.847558684347982</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1983763333333333</v>
+        <v>0.1485493333333333</v>
       </c>
       <c r="N7">
-        <v>0.595129</v>
+        <v>0.445648</v>
       </c>
       <c r="O7">
-        <v>0.4652334848597371</v>
+        <v>0.3824618587738337</v>
       </c>
       <c r="P7">
-        <v>0.4652334848597371</v>
+        <v>0.3824618587738337</v>
       </c>
       <c r="Q7">
-        <v>0.1437794633751111</v>
+        <v>0.04492894393244445</v>
       </c>
       <c r="R7">
-        <v>1.294015170376</v>
+        <v>0.404360495392</v>
       </c>
       <c r="S7">
-        <v>0.3943126803423456</v>
+        <v>0.3103093875742161</v>
       </c>
       <c r="T7">
-        <v>0.3943126803423456</v>
+        <v>0.3103093875742161</v>
       </c>
     </row>
   </sheetData>
